--- a/src/Excel/entregable2/PagoTCyReversa.xlsx
+++ b/src/Excel/entregable2/PagoTCyReversa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -61,12 +61,19 @@
   </si>
   <si>
     <t>00001736</t>
+  </si>
+  <si>
+    <t>26 jun. 2023, 18:22:44</t>
+  </si>
+  <si>
+    <t>26 jun. 2023, 18:25:57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,11 +418,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -455,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/PagoTCyReversa.xlsx
+++ b/src/Excel/entregable2/PagoTCyReversa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>26 jun. 2023, 18:25:57</t>
+  </si>
+  <si>
+    <t>28 jun. 2023, 14:41:27</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/PagoTCyReversa.xlsx
+++ b/src/Excel/entregable2/PagoTCyReversa.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C73401-B9FB-47F0-86B3-EC8D74E0C9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FCA978-218F-4DA3-8EDB-20C8E3320632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>usuario</t>
   </si>
@@ -45,38 +45,19 @@
     <t>123456</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>ebenito</t>
   </si>
   <si>
     <t>Id Cliente</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>24 abr. 2023, 11:22:38</t>
-  </si>
-  <si>
     <t>00001736</t>
-  </si>
-  <si>
-    <t>26 jun. 2023, 18:22:44</t>
-  </si>
-  <si>
-    <t>26 jun. 2023, 18:25:57</t>
-  </si>
-  <si>
-    <t>28 jun. 2023, 14:41:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,16 +397,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -436,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -450,22 +431,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/PagoTCyReversa.xlsx
+++ b/src/Excel/entregable2/PagoTCyReversa.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FCA978-218F-4DA3-8EDB-20C8E3320632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605D5F8-090C-47F5-B6AF-E04AA854E906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PagoTCyReversa" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>usuario</t>
   </si>
@@ -51,13 +51,26 @@
     <t>Id Cliente</t>
   </si>
   <si>
-    <t>00001736</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7 ago. 2023, 11:59:09</t>
+  </si>
+  <si>
+    <t>04644120</t>
+  </si>
+  <si>
+    <t>7 ago. 2023, 12:21:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,16 +410,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -437,7 +450,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
